--- a/Exercices/90 - Fil Rouge/2. Conception/Jeux de données.xlsx
+++ b/Exercices/90 - Fil Rouge/2. Conception/Jeux de données.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\AFPA_CDA\Exercices\90 - Fil Rouge\2. Conception\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\59011-14-06\Exercices\90 - Fil Rouge\2. Conception\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7E728E-0FDB-47CB-A781-5221328D7903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Produits" sheetId="1" r:id="rId1"/>
     <sheet name="Divers" sheetId="2" r:id="rId2"/>
-    <sheet name="Relations" sheetId="3" r:id="rId3"/>
+    <sheet name="Divers 2" sheetId="4" r:id="rId3"/>
+    <sheet name="Relations" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>libelleProduit</t>
   </si>
@@ -191,14 +191,56 @@
   </si>
   <si>
     <t>PIASYNELE65</t>
+  </si>
+  <si>
+    <t>Reglements</t>
+  </si>
+  <si>
+    <t>idReglement</t>
+  </si>
+  <si>
+    <t>typePaiement</t>
+  </si>
+  <si>
+    <t>Carte Bleue</t>
+  </si>
+  <si>
+    <t>Virement</t>
+  </si>
+  <si>
+    <t>Chèque</t>
+  </si>
+  <si>
+    <t>Monnaie</t>
+  </si>
+  <si>
+    <t>PayPal</t>
+  </si>
+  <si>
+    <t>Crypto</t>
+  </si>
+  <si>
+    <t>libelleCategClient</t>
+  </si>
+  <si>
+    <t>infoReglement</t>
+  </si>
+  <si>
+    <t>coefCategClient</t>
+  </si>
+  <si>
+    <t>idCategorieClient</t>
+  </si>
+  <si>
+    <t>CategoriesClients</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -228,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +292,11 @@
         <fgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -420,31 +467,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -452,31 +485,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -490,19 +505,416 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
     <cellStyle name="Accent3" xfId="3" builtinId="37"/>
+    <cellStyle name="Accent4" xfId="4" builtinId="41"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -588,7 +1000,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+      <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -672,6 +1084,36 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -690,390 +1132,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -1090,19 +1148,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D756066-605F-4F23-A30D-F25925726C37}" name="Produits" displayName="Produits" ref="A2:H5" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
-  <autoFilter ref="A2:H5" xr:uid="{6D756066-605F-4F23-A30D-F25925726C37}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Produits" displayName="Produits" ref="A2:H5" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+  <autoFilter ref="A2:H5"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{67705A4B-9537-4B0D-AE24-3083CAE01B06}" name="libelleProduit" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{9235C929-D2CF-43A4-952C-8C7ECBBC863E}" name="descProduit" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{085B7B05-776C-4D55-979A-0D3C1139F7FA}" name="refProduit" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{60AB3158-EB6C-4F11-AC99-1D69834BDAB3}" name="prixHorsTaxe" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{B367AAE0-1D69-4AFE-9C28-68B1484BE47F}" name="photo" dataDxfId="5">
+    <tableColumn id="1" name="libelleProduit" dataDxfId="32"/>
+    <tableColumn id="2" name="descProduit" dataDxfId="31"/>
+    <tableColumn id="3" name="refProduit" dataDxfId="30"/>
+    <tableColumn id="4" name="prixHorsTaxe" dataDxfId="29"/>
+    <tableColumn id="5" name="photo" dataDxfId="28">
       <calculatedColumnFormula>"./IMG/Produits/"&amp;Produits[[#This Row],[refProduit]]&amp;".png"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4C27DD2C-3AE5-4754-B41B-A41E47D41292}" name="stock" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{EA5DE5E8-6BD4-4638-9CC4-B34D3907B348}" name="idProduit" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{165B31C5-0A3E-4C85-B78B-FA64D0F883C3}" name="SQL" dataDxfId="2">
+    <tableColumn id="6" name="stock" dataDxfId="27"/>
+    <tableColumn id="7" name="idProduit" dataDxfId="26"/>
+    <tableColumn id="8" name="SQL" dataDxfId="25">
       <calculatedColumnFormula>"INSERT INTO "&amp;$A$1&amp;" ("""&amp;Produits[[#Headers],[libelleProduit]]&amp;""", """&amp;Produits[[#Headers],[descProduit]]&amp;""", """&amp;Produits[[#Headers],[refProduit]]&amp;""", """&amp;Produits[[#Headers],[prixHorsTaxe]]&amp;""","""&amp;Produits[[#Headers],[photo]]&amp;""", """&amp;Produits[[#Headers],[stock]]&amp;""") VALUES ("""&amp;Produits[[#This Row],[libelleProduit]]&amp;""", """&amp;Produits[[#This Row],[descProduit]]&amp;""","""&amp;Produits[[#This Row],[refProduit]]&amp;""","&amp;Produits[[#This Row],[prixHorsTaxe]]&amp;","""&amp;Produits[[#This Row],[photo]]&amp;""","&amp;Produits[[#This Row],[stock]]&amp;");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1111,12 +1169,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DA48BC86-075E-4677-8272-6A07D8739BE2}" name="Fournisseurs" displayName="Fournisseurs" ref="A2:C5" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="34" tableBorderDxfId="35" totalsRowBorderDxfId="33">
-  <autoFilter ref="A2:C5" xr:uid="{DA48BC86-075E-4677-8272-6A07D8739BE2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Fournisseurs" displayName="Fournisseurs" ref="A2:C5" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A2:C5"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9D681DB9-A17C-49F6-A688-7AAD0487A007}" name="nomFournisseur" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{F920F638-E59E-430C-A6B9-864009884097}" name="idFournisseur" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{7E3762F0-CE24-44BC-A113-72A1D9A880F8}" name="SQL" dataDxfId="29">
+    <tableColumn id="1" name="nomFournisseur" dataDxfId="20"/>
+    <tableColumn id="2" name="idFournisseur" dataDxfId="19"/>
+    <tableColumn id="3" name="SQL" dataDxfId="18">
       <calculatedColumnFormula>"INSERT INTO "&amp;$A$1&amp;" ("&amp;$A$2&amp;") VALUES ("""&amp;A3&amp;""");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1125,12 +1183,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6D90AB61-30E3-4958-A3AB-98CFFF427793}" name="TVAs" displayName="TVAs" ref="A8:C10" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="27" tableBorderDxfId="28" totalsRowBorderDxfId="26">
-  <autoFilter ref="A8:C10" xr:uid="{6D90AB61-30E3-4958-A3AB-98CFFF427793}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="TVAs" displayName="TVAs" ref="A8:C10" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+  <autoFilter ref="A8:C10"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{C5C35DCA-4616-41C1-BD5A-11681DF2E449}" name="tauxTVA" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{2A858B30-77FA-4847-89C9-51327238357D}" name="idTVA" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{CF4C2E8C-0A16-437C-B82D-EB3D55E58E07}" name="SQL" dataDxfId="14">
+    <tableColumn id="1" name="tauxTVA" dataDxfId="13"/>
+    <tableColumn id="2" name="idTVA" dataDxfId="12"/>
+    <tableColumn id="3" name="SQL" dataDxfId="11">
       <calculatedColumnFormula>"INSERT INTO "&amp;$A$7&amp;" ("""&amp;TVAs[[#Headers],[tauxTVA]]&amp;""") VALUES ("&amp;TVAs[[#This Row],[tauxTVA]]&amp;");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1139,13 +1197,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{9D5F6CDA-2C07-458E-AB55-41BE4E5854D5}" name="Rubriques" displayName="Rubriques" ref="A13:D25" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="23" tableBorderDxfId="24" totalsRowBorderDxfId="22">
-  <autoFilter ref="A13:D25" xr:uid="{9D5F6CDA-2C07-458E-AB55-41BE4E5854D5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Rubriques" displayName="Rubriques" ref="A13:D25" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A13:D25"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5EC1AB05-79EB-44F0-AB94-D0CAAD014701}" name="libelleRubrique" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{7DADFC4C-68FD-4243-B8D9-FBDD08A6ADF1}" name="idRubriqueParente" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{D80F8B6E-9B9F-4AEC-84C3-5BAD54DBA06D}" name="idRubrique" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{DE158BFF-E2BA-4C11-AAF4-C75462B48564}" name="SQL" dataDxfId="17">
+    <tableColumn id="1" name="libelleRubrique" dataDxfId="6"/>
+    <tableColumn id="2" name="idRubriqueParente" dataDxfId="5"/>
+    <tableColumn id="3" name="idRubrique" dataDxfId="4"/>
+    <tableColumn id="4" name="SQL" dataDxfId="3">
       <calculatedColumnFormula>"INSERT INTO "&amp;$A$12&amp;" ("&amp;Rubriques[[#Headers],[idRubrique]]&amp;", "&amp;Rubriques[[#Headers],[libelleRubrique]]&amp;", "&amp;Rubriques[[#Headers],[idRubriqueParente]]&amp;") VALUES ("&amp;Rubriques[[#This Row],[idRubrique]]&amp;","""&amp;Rubriques[[#This Row],[libelleRubrique]]&amp;""", "&amp;Rubriques[[#This Row],[idRubriqueParente]]&amp;");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1154,14 +1212,28 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E8076368-F6CA-4AF5-A3C1-5F3AEB45FDED}" name="ApplicationsTVA" displayName="ApplicationsTVA" ref="A2:E4" totalsRowShown="0">
-  <autoFilter ref="A2:E4" xr:uid="{E8076368-F6CA-4AF5-A3C1-5F3AEB45FDED}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A28:C34" totalsRowShown="0">
+  <autoFilter ref="A28:C34"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="typePaiement"/>
+    <tableColumn id="2" name="idReglement"/>
+    <tableColumn id="3" name="SQL" dataDxfId="0">
+      <calculatedColumnFormula>"INSERT INTO "&amp;$A$27&amp;" ("&amp;Tableau3[[#Headers],[typePaiement]]&amp;") VALUES ("""&amp;Tableau3[[#This Row],[typePaiement]]&amp;""");"</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="ApplicationsTVA" displayName="ApplicationsTVA" ref="A2:E4" totalsRowShown="0">
+  <autoFilter ref="A2:E4"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E751FFC3-571D-4BF8-8C12-6321E653AF5D}" name="idProduit"/>
-    <tableColumn id="2" xr3:uid="{9D77BBF2-EF91-4A16-93D4-8D3828D4CAF2}" name="idTVA"/>
-    <tableColumn id="3" xr3:uid="{9780036D-768F-4DFE-B507-FDB57313F94E}" name="dateTVA"/>
-    <tableColumn id="4" xr3:uid="{99199AC5-D5CC-4759-94E6-76563606F704}" name="idApplicationTVA"/>
-    <tableColumn id="5" xr3:uid="{6C1362FC-E2F9-4D82-BEC3-7D4C7101271F}" name="SQL" dataDxfId="1">
+    <tableColumn id="1" name="idProduit"/>
+    <tableColumn id="2" name="idTVA"/>
+    <tableColumn id="3" name="dateTVA"/>
+    <tableColumn id="4" name="idApplicationTVA"/>
+    <tableColumn id="5" name="SQL" dataDxfId="2">
       <calculatedColumnFormula>"INSERT INTO "&amp;$A$1&amp;" ("&amp;ApplicationsTVA[[#Headers],[idProduit]]&amp;", "&amp;ApplicationsTVA[[#Headers],[idTVA]]&amp;", "&amp;ApplicationsTVA[[#Headers],[dateTVA]]&amp;") VALUES ("&amp;ApplicationsTVA[[#This Row],[idProduit]]&amp;", "&amp;ApplicationsTVA[[#This Row],[idTVA]]&amp;", "&amp;TEXT(ApplicationsTVA[[#This Row],[dateTVA]],"aaaa-mm-jj")&amp;");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1169,15 +1241,15 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2FA09455-D803-4FF1-9732-2B9025A9F09A}" name="Approvisions" displayName="Approvisions" ref="A7:E10" totalsRowShown="0">
-  <autoFilter ref="A7:E10" xr:uid="{2FA09455-D803-4FF1-9732-2B9025A9F09A}"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Approvisions" displayName="Approvisions" ref="A7:E10" totalsRowShown="0">
+  <autoFilter ref="A7:E10"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{983F9088-7A75-4C26-BB7D-2C06EFCFA9D8}" name="idProduit"/>
-    <tableColumn id="2" xr3:uid="{6375BB8D-EC4C-4838-83D0-452D68C6B8C0}" name="idFournisseur"/>
-    <tableColumn id="3" xr3:uid="{E4C74C34-5BC8-4294-8931-5A558043B616}" name="refFournisseur"/>
-    <tableColumn id="4" xr3:uid="{8E409B33-7758-43B0-9E5E-AFA0E4A8F9E1}" name="idApprovision"/>
-    <tableColumn id="5" xr3:uid="{0255EEDB-D5FA-488C-B8F1-653F7765DDDB}" name="SQL" dataDxfId="0">
+    <tableColumn id="1" name="idProduit"/>
+    <tableColumn id="2" name="idFournisseur"/>
+    <tableColumn id="3" name="refFournisseur"/>
+    <tableColumn id="4" name="idApprovision"/>
+    <tableColumn id="5" name="SQL" dataDxfId="1">
       <calculatedColumnFormula>"INSERT INTO "&amp;$A$6&amp;" ("&amp;Approvisions[[#Headers],[idProduit]]&amp;", "&amp;Approvisions[[#Headers],[idFournisseur]]&amp;", "&amp;Approvisions[[#Headers],[refFournisseur]]&amp;") VALUES ("&amp;Approvisions[[#This Row],[idProduit]]&amp;", "&amp;Approvisions[[#This Row],[idFournisseur]]&amp;", """&amp;Approvisions[[#This Row],[refFournisseur]]&amp;""");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1447,7 +1519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1463,125 +1535,125 @@
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="193.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="193.85546875" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="12">
         <v>500</v>
       </c>
-      <c r="E3" s="4" t="str">
+      <c r="E3" s="2" t="str">
         <f>"./IMG/Produits/"&amp;Produits[[#This Row],[refProduit]]&amp;".png"</f>
         <v>./IMG/Produits/GIT01.png</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>10</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="29" t="str">
+      <c r="H3" s="18" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" ("""&amp;Produits[[#Headers],[libelleProduit]]&amp;""", """&amp;Produits[[#Headers],[descProduit]]&amp;""", """&amp;Produits[[#Headers],[refProduit]]&amp;""", """&amp;Produits[[#Headers],[prixHorsTaxe]]&amp;""","""&amp;Produits[[#Headers],[photo]]&amp;""", """&amp;Produits[[#Headers],[stock]]&amp;""") VALUES ("""&amp;Produits[[#This Row],[libelleProduit]]&amp;""", """&amp;Produits[[#This Row],[descProduit]]&amp;""","""&amp;Produits[[#This Row],[refProduit]]&amp;""","&amp;Produits[[#This Row],[prixHorsTaxe]]&amp;","""&amp;Produits[[#This Row],[photo]]&amp;""","&amp;Produits[[#This Row],[stock]]&amp;");"</f>
         <v>INSERT INTO Produits ("libelleProduit", "descProduit", "refProduit", "prixHorsTaxe","photo", "stock") VALUES ("Guitare qui sonne", "Guitare Lespol Couleur Rouge","GIT01",500,"./IMG/Produits/GIT01.png",10);</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="12">
         <v>200</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="2" t="str">
         <f>"./IMG/Produits/"&amp;Produits[[#This Row],[refProduit]]&amp;".png"</f>
         <v>./IMG/Produits/CYM05.png</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>30</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="29" t="str">
+      <c r="H4" s="18" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" ("""&amp;Produits[[#Headers],[libelleProduit]]&amp;""", """&amp;Produits[[#Headers],[descProduit]]&amp;""", """&amp;Produits[[#Headers],[refProduit]]&amp;""", """&amp;Produits[[#Headers],[prixHorsTaxe]]&amp;""","""&amp;Produits[[#Headers],[photo]]&amp;""", """&amp;Produits[[#Headers],[stock]]&amp;""") VALUES ("""&amp;Produits[[#This Row],[libelleProduit]]&amp;""", """&amp;Produits[[#This Row],[descProduit]]&amp;""","""&amp;Produits[[#This Row],[refProduit]]&amp;""","&amp;Produits[[#This Row],[prixHorsTaxe]]&amp;","""&amp;Produits[[#This Row],[photo]]&amp;""","&amp;Produits[[#This Row],[stock]]&amp;");"</f>
         <v>INSERT INTO Produits ("libelleProduit", "descProduit", "refProduit", "prixHorsTaxe","photo", "stock") VALUES ("Cymbale qui tinte", "Cymbale de marque quelconque","CYM05",200,"./IMG/Produits/CYM05.png",30);</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="16">
         <v>150</v>
       </c>
-      <c r="E5" s="13" t="str">
+      <c r="E5" s="8" t="str">
         <f>"./IMG/Produits/"&amp;Produits[[#This Row],[refProduit]]&amp;".png"</f>
         <v>./IMG/Produits/PIA07.png</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="8">
         <v>5</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="8">
         <v>3</v>
       </c>
-      <c r="H5" s="30" t="str">
+      <c r="H5" s="19" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" ("""&amp;Produits[[#Headers],[libelleProduit]]&amp;""", """&amp;Produits[[#Headers],[descProduit]]&amp;""", """&amp;Produits[[#Headers],[refProduit]]&amp;""", """&amp;Produits[[#Headers],[prixHorsTaxe]]&amp;""","""&amp;Produits[[#Headers],[photo]]&amp;""", """&amp;Produits[[#Headers],[stock]]&amp;""") VALUES ("""&amp;Produits[[#This Row],[libelleProduit]]&amp;""", """&amp;Produits[[#This Row],[descProduit]]&amp;""","""&amp;Produits[[#This Row],[refProduit]]&amp;""","&amp;Produits[[#This Row],[prixHorsTaxe]]&amp;","""&amp;Produits[[#This Row],[photo]]&amp;""","&amp;Produits[[#This Row],[stock]]&amp;");"</f>
         <v>INSERT INTO Produits ("libelleProduit", "descProduit", "refProduit", "prixHorsTaxe","photo", "stock") VALUES ("Clavier midi", "","PIA07",150,"./IMG/Produits/PIA07.png",5);</v>
       </c>
@@ -1598,11 +1670,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50354B38-51C9-4DD7-B762-4A7020CC76C6}">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,326 +1686,468 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="str">
+      <c r="C3" s="6" t="str">
         <f>"INSERT INTO "&amp;$A$1&amp;" ("&amp;$A$2&amp;") VALUES ("""&amp;A3&amp;""");"</f>
         <v>INSERT INTO Fournisseurs (nomFournisseur) VALUES ("Fournisseur 1");</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="6" t="str">
         <f t="shared" ref="C4:C5" si="0">"INSERT INTO "&amp;$A$1&amp;" ("&amp;$A$2&amp;") VALUES ("""&amp;A4&amp;""");"</f>
         <v>INSERT INTO Fournisseurs (nomFournisseur) VALUES ("Fournisseur 2");</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="14" t="str">
+      <c r="C5" s="9" t="str">
         <f t="shared" si="0"/>
         <v>INSERT INTO Fournisseurs (nomFournisseur) VALUES ("Fournisseur 3");</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="5">
         <v>10</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="11" t="str">
+      <c r="C9" s="6" t="str">
         <f>"INSERT INTO "&amp;$A$7&amp;" ("""&amp;TVAs[[#Headers],[tauxTVA]]&amp;""") VALUES ("&amp;TVAs[[#This Row],[tauxTVA]]&amp;");"</f>
         <v>INSERT INTO TVAs ("tauxTVA") VALUES (10);</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12">
+      <c r="A10" s="7">
         <v>20</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="8">
         <v>2</v>
       </c>
-      <c r="C10" s="14" t="str">
+      <c r="C10" s="9" t="str">
         <f>"INSERT INTO "&amp;$A$7&amp;" ("""&amp;TVAs[[#Headers],[tauxTVA]]&amp;""") VALUES ("&amp;TVAs[[#This Row],[tauxTVA]]&amp;");"</f>
         <v>INSERT INTO TVAs ("tauxTVA") VALUES (20);</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="11" t="str">
+      <c r="D14" s="6" t="str">
         <f>"INSERT INTO "&amp;$A$12&amp;" ("&amp;Rubriques[[#Headers],[idRubrique]]&amp;", "&amp;Rubriques[[#Headers],[libelleRubrique]]&amp;", "&amp;Rubriques[[#Headers],[idRubriqueParente]]&amp;") VALUES ("&amp;Rubriques[[#This Row],[idRubrique]]&amp;","""&amp;Rubriques[[#This Row],[libelleRubrique]]&amp;""", "&amp;Rubriques[[#This Row],[idRubriqueParente]]&amp;");"</f>
         <v>INSERT INTO Rubriques (idRubrique, libelleRubrique, idRubriqueParente) VALUES (1,"Cordes", NULL);</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>1</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="11" t="str">
+      <c r="D15" s="6" t="str">
         <f>"INSERT INTO "&amp;$A$12&amp;" ("&amp;Rubriques[[#Headers],[idRubrique]]&amp;", "&amp;Rubriques[[#Headers],[libelleRubrique]]&amp;", "&amp;Rubriques[[#Headers],[idRubriqueParente]]&amp;") VALUES ("&amp;Rubriques[[#This Row],[idRubrique]]&amp;","""&amp;Rubriques[[#This Row],[libelleRubrique]]&amp;""", "&amp;Rubriques[[#This Row],[idRubriqueParente]]&amp;");"</f>
         <v>INSERT INTO Rubriques (idRubrique, libelleRubrique, idRubriqueParente) VALUES (2,"Cordes Pincées", 1);</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>3</v>
       </c>
-      <c r="D16" s="11" t="str">
+      <c r="D16" s="6" t="str">
         <f>"INSERT INTO "&amp;$A$12&amp;" ("&amp;Rubriques[[#Headers],[idRubrique]]&amp;", "&amp;Rubriques[[#Headers],[libelleRubrique]]&amp;", "&amp;Rubriques[[#Headers],[idRubriqueParente]]&amp;") VALUES ("&amp;Rubriques[[#This Row],[idRubrique]]&amp;","""&amp;Rubriques[[#This Row],[libelleRubrique]]&amp;""", "&amp;Rubriques[[#This Row],[idRubriqueParente]]&amp;");"</f>
         <v>INSERT INTO Rubriques (idRubrique, libelleRubrique, idRubriqueParente) VALUES (3,"Cordes Frottées", 1);</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>4</v>
       </c>
-      <c r="D17" s="11" t="str">
+      <c r="D17" s="6" t="str">
         <f>"INSERT INTO "&amp;$A$12&amp;" ("&amp;Rubriques[[#Headers],[idRubrique]]&amp;", "&amp;Rubriques[[#Headers],[libelleRubrique]]&amp;", "&amp;Rubriques[[#Headers],[idRubriqueParente]]&amp;") VALUES ("&amp;Rubriques[[#This Row],[idRubrique]]&amp;","""&amp;Rubriques[[#This Row],[libelleRubrique]]&amp;""", "&amp;Rubriques[[#This Row],[idRubriqueParente]]&amp;");"</f>
         <v>INSERT INTO Rubriques (idRubrique, libelleRubrique, idRubriqueParente) VALUES (4,"Cordes Frappées", 1);</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>5</v>
       </c>
-      <c r="D18" s="11" t="str">
+      <c r="D18" s="6" t="str">
         <f>"INSERT INTO "&amp;$A$12&amp;" ("&amp;Rubriques[[#Headers],[idRubrique]]&amp;", "&amp;Rubriques[[#Headers],[libelleRubrique]]&amp;", "&amp;Rubriques[[#Headers],[idRubriqueParente]]&amp;") VALUES ("&amp;Rubriques[[#This Row],[idRubrique]]&amp;","""&amp;Rubriques[[#This Row],[libelleRubrique]]&amp;""", "&amp;Rubriques[[#This Row],[idRubriqueParente]]&amp;");"</f>
         <v>INSERT INTO Rubriques (idRubrique, libelleRubrique, idRubriqueParente) VALUES (5,"Vents", NULL);</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>5</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>6</v>
       </c>
-      <c r="D19" s="11" t="str">
+      <c r="D19" s="6" t="str">
         <f>"INSERT INTO "&amp;$A$12&amp;" ("&amp;Rubriques[[#Headers],[idRubrique]]&amp;", "&amp;Rubriques[[#Headers],[libelleRubrique]]&amp;", "&amp;Rubriques[[#Headers],[idRubriqueParente]]&amp;") VALUES ("&amp;Rubriques[[#This Row],[idRubrique]]&amp;","""&amp;Rubriques[[#This Row],[libelleRubrique]]&amp;""", "&amp;Rubriques[[#This Row],[idRubriqueParente]]&amp;");"</f>
         <v>INSERT INTO Rubriques (idRubrique, libelleRubrique, idRubriqueParente) VALUES (6,"Bois", 5);</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <v>5</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>7</v>
       </c>
-      <c r="D20" s="11" t="str">
+      <c r="D20" s="6" t="str">
         <f>"INSERT INTO "&amp;$A$12&amp;" ("&amp;Rubriques[[#Headers],[idRubrique]]&amp;", "&amp;Rubriques[[#Headers],[libelleRubrique]]&amp;", "&amp;Rubriques[[#Headers],[idRubriqueParente]]&amp;") VALUES ("&amp;Rubriques[[#This Row],[idRubrique]]&amp;","""&amp;Rubriques[[#This Row],[libelleRubrique]]&amp;""", "&amp;Rubriques[[#This Row],[idRubriqueParente]]&amp;");"</f>
         <v>INSERT INTO Rubriques (idRubrique, libelleRubrique, idRubriqueParente) VALUES (7,"Cuivres", 5);</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>8</v>
       </c>
-      <c r="D21" s="11" t="str">
+      <c r="D21" s="6" t="str">
         <f>"INSERT INTO "&amp;$A$12&amp;" ("&amp;Rubriques[[#Headers],[idRubrique]]&amp;", "&amp;Rubriques[[#Headers],[libelleRubrique]]&amp;", "&amp;Rubriques[[#Headers],[idRubriqueParente]]&amp;") VALUES ("&amp;Rubriques[[#This Row],[idRubrique]]&amp;","""&amp;Rubriques[[#This Row],[libelleRubrique]]&amp;""", "&amp;Rubriques[[#This Row],[idRubriqueParente]]&amp;");"</f>
         <v>INSERT INTO Rubriques (idRubrique, libelleRubrique, idRubriqueParente) VALUES (8,"Percussions", NULL);</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>8</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>9</v>
       </c>
-      <c r="D22" s="11" t="str">
+      <c r="D22" s="6" t="str">
         <f>"INSERT INTO "&amp;$A$12&amp;" ("&amp;Rubriques[[#Headers],[idRubrique]]&amp;", "&amp;Rubriques[[#Headers],[libelleRubrique]]&amp;", "&amp;Rubriques[[#Headers],[idRubriqueParente]]&amp;") VALUES ("&amp;Rubriques[[#This Row],[idRubrique]]&amp;","""&amp;Rubriques[[#This Row],[libelleRubrique]]&amp;""", "&amp;Rubriques[[#This Row],[idRubriqueParente]]&amp;");"</f>
         <v>INSERT INTO Rubriques (idRubrique, libelleRubrique, idRubriqueParente) VALUES (9,"Membranophones", 8);</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>8</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>10</v>
       </c>
-      <c r="D23" s="11" t="str">
+      <c r="D23" s="6" t="str">
         <f>"INSERT INTO "&amp;$A$12&amp;" ("&amp;Rubriques[[#Headers],[idRubrique]]&amp;", "&amp;Rubriques[[#Headers],[libelleRubrique]]&amp;", "&amp;Rubriques[[#Headers],[idRubriqueParente]]&amp;") VALUES ("&amp;Rubriques[[#This Row],[idRubrique]]&amp;","""&amp;Rubriques[[#This Row],[libelleRubrique]]&amp;""", "&amp;Rubriques[[#This Row],[idRubriqueParente]]&amp;");"</f>
         <v>INSERT INTO Rubriques (idRubrique, libelleRubrique, idRubriqueParente) VALUES (10,"Idiophones", 8);</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>2</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>11</v>
       </c>
-      <c r="D24" s="11" t="str">
+      <c r="D24" s="6" t="str">
         <f>"INSERT INTO "&amp;$A$12&amp;" ("&amp;Rubriques[[#Headers],[idRubrique]]&amp;", "&amp;Rubriques[[#Headers],[libelleRubrique]]&amp;", "&amp;Rubriques[[#Headers],[idRubriqueParente]]&amp;") VALUES ("&amp;Rubriques[[#This Row],[idRubrique]]&amp;","""&amp;Rubriques[[#This Row],[libelleRubrique]]&amp;""", "&amp;Rubriques[[#This Row],[idRubriqueParente]]&amp;");"</f>
         <v>INSERT INTO Rubriques (idRubrique, libelleRubrique, idRubriqueParente) VALUES (11,"Guitares", 2);</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="8">
         <v>3</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="8">
         <v>12</v>
       </c>
-      <c r="D25" s="14" t="str">
+      <c r="D25" s="9" t="str">
         <f>"INSERT INTO "&amp;$A$12&amp;" ("&amp;Rubriques[[#Headers],[idRubrique]]&amp;", "&amp;Rubriques[[#Headers],[libelleRubrique]]&amp;", "&amp;Rubriques[[#Headers],[idRubriqueParente]]&amp;") VALUES ("&amp;Rubriques[[#This Row],[idRubrique]]&amp;","""&amp;Rubriques[[#This Row],[libelleRubrique]]&amp;""", "&amp;Rubriques[[#This Row],[idRubriqueParente]]&amp;");"</f>
         <v>INSERT INTO Rubriques (idRubrique, libelleRubrique, idRubriqueParente) VALUES (12,"Violons", 3);</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="str">
+        <f>"INSERT INTO "&amp;$A$27&amp;" ("&amp;Tableau3[[#Headers],[typePaiement]]&amp;") VALUES ("""&amp;Tableau3[[#This Row],[typePaiement]]&amp;""");"</f>
+        <v>INSERT INTO Reglements (typePaiement) VALUES ("Carte Bleue");</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="str">
+        <f>"INSERT INTO "&amp;$A$27&amp;" ("&amp;Tableau3[[#Headers],[typePaiement]]&amp;") VALUES ("""&amp;Tableau3[[#This Row],[typePaiement]]&amp;""");"</f>
+        <v>INSERT INTO Reglements (typePaiement) VALUES ("Virement");</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="str">
+        <f>"INSERT INTO "&amp;$A$27&amp;" ("&amp;Tableau3[[#Headers],[typePaiement]]&amp;") VALUES ("""&amp;Tableau3[[#This Row],[typePaiement]]&amp;""");"</f>
+        <v>INSERT INTO Reglements (typePaiement) VALUES ("Chèque");</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32" t="str">
+        <f>"INSERT INTO "&amp;$A$27&amp;" ("&amp;Tableau3[[#Headers],[typePaiement]]&amp;") VALUES ("""&amp;Tableau3[[#This Row],[typePaiement]]&amp;""");"</f>
+        <v>INSERT INTO Reglements (typePaiement) VALUES ("Monnaie");</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" t="str">
+        <f>"INSERT INTO "&amp;$A$27&amp;" ("&amp;Tableau3[[#Headers],[typePaiement]]&amp;") VALUES ("""&amp;Tableau3[[#This Row],[typePaiement]]&amp;""");"</f>
+        <v>INSERT INTO Reglements (typePaiement) VALUES ("PayPal");</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34" t="str">
+        <f>"INSERT INTO "&amp;$A$27&amp;" ("&amp;Tableau3[[#Headers],[typePaiement]]&amp;") VALUES ("""&amp;Tableau3[[#This Row],[typePaiement]]&amp;""");"</f>
+        <v>INSERT INTO Reglements (typePaiement) VALUES ("Crypto");</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8F4D4D-3E8F-43D8-89C0-BAF6FD2D97B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1946,13 +2160,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1978,7 +2192,7 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="21">
         <v>42278</v>
       </c>
       <c r="D3">
@@ -1996,7 +2210,7 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="21">
         <v>42278</v>
       </c>
       <c r="D4">
@@ -2008,13 +2222,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
